--- a/sampledata/origin/Ru_cat_0312.xlsx
+++ b/sampledata/origin/Ru_cat_0312.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/macmini_m1_2022/PycharmProjects/CoMFA_model/sampledata/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/macmini_m1_2022/PycharmProjects/CoMFA_model/sampledata/origin/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF136828-28EC-F64D-8083-F97290A765DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3171975F-28B1-7441-BD2D-A81B218A4813}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7720" yWindow="500" windowWidth="15960" windowHeight="18080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2200" yWindow="500" windowWidth="15960" windowHeight="18080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="シート1 - Ru_cat_1127" sheetId="1" r:id="rId1"/>
@@ -20,10 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="106">
-  <si>
-    <t>entry</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="105">
   <si>
     <t>smiles</t>
   </si>
@@ -35,9 +32,6 @@
   </si>
   <si>
     <t>temperature</t>
-  </si>
-  <si>
-    <t>table</t>
   </si>
   <si>
     <t>c1ccccc1C(=O)C</t>
@@ -347,6 +341,10 @@
   </si>
   <si>
     <t>C(=O)(C1=C(C)CCC1)C</t>
+  </si>
+  <si>
+    <t>locatiob</t>
+    <phoneticPr fontId="3"/>
   </si>
 </sst>
 </file>
@@ -1721,7 +1719,7 @@
   <dimension ref="A1:G87"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10" defaultRowHeight="23" customHeight="1"/>
@@ -1738,23 +1736,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="18.5" customHeight="1">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="2"/>
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
-        <v>4</v>
-      </c>
       <c r="F1" s="2" t="s">
-        <v>5</v>
+        <v>104</v>
       </c>
       <c r="G1" s="3"/>
     </row>
@@ -1763,7 +1759,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C2" s="6">
         <v>99</v>
@@ -1775,10 +1771,10 @@
         <v>301</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="18.25" customHeight="1">
@@ -1786,7 +1782,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C3" s="10">
         <v>99</v>
@@ -1805,7 +1801,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C4" s="10">
         <v>99</v>
@@ -1824,7 +1820,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C5" s="10">
         <v>96</v>
@@ -1843,7 +1839,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C6" s="10">
         <v>99</v>
@@ -1862,7 +1858,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C7" s="10">
         <v>97</v>
@@ -1881,7 +1877,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C8" s="10">
         <v>98</v>
@@ -1900,7 +1896,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C9" s="10">
         <v>96</v>
@@ -1919,7 +1915,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C10" s="10">
         <v>99</v>
@@ -1938,7 +1934,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C11" s="10">
         <v>92</v>
@@ -1957,7 +1953,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C12" s="10">
         <v>98</v>
@@ -1976,7 +1972,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C13" s="10">
         <v>100</v>
@@ -1995,7 +1991,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C14" s="10">
         <v>98</v>
@@ -2014,7 +2010,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C15" s="10">
         <v>99.5</v>
@@ -2033,7 +2029,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C16" s="10">
         <v>99</v>
@@ -2052,7 +2048,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C17" s="10">
         <v>99</v>
@@ -2071,7 +2067,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C18" s="10">
         <v>98</v>
@@ -2090,7 +2086,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C19" s="10">
         <v>98</v>
@@ -2109,7 +2105,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C20" s="10">
         <v>97</v>
@@ -2128,7 +2124,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C21" s="10">
         <v>97</v>
@@ -2147,7 +2143,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C22" s="10">
         <v>99.6</v>
@@ -2166,7 +2162,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C23" s="10">
         <v>99</v>
@@ -2185,7 +2181,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C24" s="10">
         <v>99.6</v>
@@ -2204,7 +2200,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C25" s="10">
         <v>100</v>
@@ -2223,7 +2219,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C26" s="10">
         <v>99</v>
@@ -2242,7 +2238,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C27" s="10">
         <v>99.8</v>
@@ -2261,7 +2257,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C28" s="10">
         <v>99</v>
@@ -2280,7 +2276,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C29" s="10">
         <v>99</v>
@@ -2299,7 +2295,7 @@
         <v>29</v>
       </c>
       <c r="B30" s="9" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C30" s="10">
         <v>99</v>
@@ -2318,7 +2314,7 @@
         <v>30</v>
       </c>
       <c r="B31" s="9" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C31" s="10">
         <v>99</v>
@@ -2337,7 +2333,7 @@
         <v>31</v>
       </c>
       <c r="B32" s="9" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C32" s="10">
         <v>97</v>
@@ -2356,7 +2352,7 @@
         <v>32</v>
       </c>
       <c r="B33" s="9" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C33" s="10">
         <v>96</v>
@@ -2375,7 +2371,7 @@
         <v>33</v>
       </c>
       <c r="B34" s="9" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C34" s="10">
         <v>99.5</v>
@@ -2394,7 +2390,7 @@
         <v>34</v>
       </c>
       <c r="B35" s="9" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C35" s="10">
         <v>98</v>
@@ -2413,7 +2409,7 @@
         <v>35</v>
       </c>
       <c r="B36" s="9" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C36" s="10">
         <v>99</v>
@@ -2432,7 +2428,7 @@
         <v>36</v>
       </c>
       <c r="B37" s="9" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C37" s="10">
         <v>-96</v>
@@ -2444,7 +2440,7 @@
         <v>301</v>
       </c>
       <c r="F37" s="12" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G37" s="11"/>
     </row>
@@ -2453,7 +2449,7 @@
         <v>37</v>
       </c>
       <c r="B38" s="9" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C38" s="10">
         <v>-94</v>
@@ -2472,7 +2468,7 @@
         <v>38</v>
       </c>
       <c r="B39" s="9" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C39" s="10">
         <v>-94</v>
@@ -2491,7 +2487,7 @@
         <v>39</v>
       </c>
       <c r="B40" s="9" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C40" s="10">
         <v>-96</v>
@@ -2510,7 +2506,7 @@
         <v>40</v>
       </c>
       <c r="B41" s="9" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C41" s="10">
         <v>-93</v>
@@ -2522,10 +2518,10 @@
         <v>301</v>
       </c>
       <c r="F41" s="12" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G41" s="12" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="42" spans="1:7" ht="18.25" customHeight="1">
@@ -2533,7 +2529,7 @@
         <v>41</v>
       </c>
       <c r="B42" s="9" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C42" s="10">
         <v>-97</v>
@@ -2552,7 +2548,7 @@
         <v>42</v>
       </c>
       <c r="B43" s="9" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C43" s="10">
         <v>-97</v>
@@ -2571,7 +2567,7 @@
         <v>43</v>
       </c>
       <c r="B44" s="9" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C44" s="10">
         <v>-96</v>
@@ -2590,7 +2586,7 @@
         <v>44</v>
       </c>
       <c r="B45" s="9" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C45" s="10">
         <v>-98</v>
@@ -2609,7 +2605,7 @@
         <v>45</v>
       </c>
       <c r="B46" s="9" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C46" s="10">
         <v>-99.4</v>
@@ -2628,7 +2624,7 @@
         <v>46</v>
       </c>
       <c r="B47" s="9" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C47" s="10">
         <v>99</v>
@@ -2640,7 +2636,7 @@
         <v>301</v>
       </c>
       <c r="F47" s="12" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="G47" s="11"/>
     </row>
@@ -2649,7 +2645,7 @@
         <v>47</v>
       </c>
       <c r="B48" s="9" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C48" s="10">
         <v>98</v>
@@ -2668,7 +2664,7 @@
         <v>48</v>
       </c>
       <c r="B49" s="9" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C49" s="10">
         <v>99</v>
@@ -2687,7 +2683,7 @@
         <v>49</v>
       </c>
       <c r="B50" s="9" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C50" s="10">
         <v>97</v>
@@ -2706,7 +2702,7 @@
         <v>50</v>
       </c>
       <c r="B51" s="9" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C51" s="10">
         <v>99.7</v>
@@ -2725,7 +2721,7 @@
         <v>51</v>
       </c>
       <c r="B52" s="9" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C52" s="10">
         <v>96</v>
@@ -2744,7 +2740,7 @@
         <v>52</v>
       </c>
       <c r="B53" s="9" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C53" s="10">
         <v>98</v>
@@ -2763,7 +2759,7 @@
         <v>53</v>
       </c>
       <c r="B54" s="9" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C54" s="10">
         <v>96</v>
@@ -2782,7 +2778,7 @@
         <v>54</v>
       </c>
       <c r="B55" s="9" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C55" s="10">
         <v>99.6</v>
@@ -2801,7 +2797,7 @@
         <v>55</v>
       </c>
       <c r="B56" s="9" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C56" s="10">
         <v>99.8</v>
@@ -2820,7 +2816,7 @@
         <v>56</v>
       </c>
       <c r="B57" s="9" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C57" s="10">
         <v>94</v>
@@ -2839,7 +2835,7 @@
         <v>57</v>
       </c>
       <c r="B58" s="9" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C58" s="10">
         <v>95</v>
@@ -2851,7 +2847,7 @@
         <v>301</v>
       </c>
       <c r="F58" s="12" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="G58" s="11"/>
     </row>
@@ -2860,7 +2856,7 @@
         <v>58</v>
       </c>
       <c r="B59" s="9" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C59" s="10">
         <v>96</v>
@@ -2879,7 +2875,7 @@
         <v>59</v>
       </c>
       <c r="B60" s="9" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C60" s="10">
         <v>85</v>
@@ -2891,10 +2887,10 @@
         <v>301</v>
       </c>
       <c r="F60" s="12" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="G60" s="12" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="61" spans="1:7" ht="18.25" customHeight="1">
@@ -2902,7 +2898,7 @@
         <v>60</v>
       </c>
       <c r="B61" s="9" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C61" s="10">
         <v>92</v>
@@ -2914,10 +2910,10 @@
         <v>301</v>
       </c>
       <c r="F61" s="12" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="G61" s="12" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="62" spans="1:7" ht="18.25" customHeight="1">
@@ -2925,7 +2921,7 @@
         <v>61</v>
       </c>
       <c r="B62" s="9" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C62" s="10">
         <v>81</v>
@@ -2938,7 +2934,7 @@
       </c>
       <c r="F62" s="11"/>
       <c r="G62" s="12" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="63" spans="1:7" ht="18.25" customHeight="1">
@@ -2946,7 +2942,7 @@
         <v>62</v>
       </c>
       <c r="B63" s="9" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C63" s="10">
         <v>-93</v>
@@ -2959,7 +2955,7 @@
       </c>
       <c r="F63" s="11"/>
       <c r="G63" s="12" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="64" spans="1:7" ht="18.25" customHeight="1">
@@ -2967,7 +2963,7 @@
         <v>63</v>
       </c>
       <c r="B64" s="9" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C64" s="10">
         <v>-99</v>
@@ -2980,7 +2976,7 @@
       </c>
       <c r="F64" s="11"/>
       <c r="G64" s="12" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="65" spans="1:7" ht="18.25" customHeight="1">
@@ -2988,7 +2984,7 @@
         <v>64</v>
       </c>
       <c r="B65" s="9" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C65" s="10">
         <v>-95</v>
@@ -3001,7 +2997,7 @@
       </c>
       <c r="F65" s="11"/>
       <c r="G65" s="12" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="66" spans="1:7" ht="18.25" customHeight="1">
@@ -3009,7 +3005,7 @@
         <v>65</v>
       </c>
       <c r="B66" s="9" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C66" s="10">
         <v>-99.8</v>
@@ -3022,7 +3018,7 @@
       </c>
       <c r="F66" s="11"/>
       <c r="G66" s="12" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="67" spans="1:7" ht="18.25" customHeight="1">
@@ -3030,7 +3026,7 @@
         <v>66</v>
       </c>
       <c r="B67" s="9" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C67" s="10">
         <v>-99</v>
@@ -3043,7 +3039,7 @@
       </c>
       <c r="F67" s="11"/>
       <c r="G67" s="12" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="68" spans="1:7" ht="18.25" customHeight="1">
@@ -3051,7 +3047,7 @@
         <v>67</v>
       </c>
       <c r="B68" s="9" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C68" s="10">
         <v>-97</v>
@@ -3063,10 +3059,10 @@
         <v>301</v>
       </c>
       <c r="F68" s="12" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="G68" s="12" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="69" spans="1:7" ht="18.25" customHeight="1">
@@ -3074,7 +3070,7 @@
         <v>68</v>
       </c>
       <c r="B69" s="9" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C69" s="10">
         <v>97.5</v>
@@ -3086,7 +3082,7 @@
         <v>301</v>
       </c>
       <c r="F69" s="12" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="G69" s="11"/>
     </row>
@@ -3095,7 +3091,7 @@
         <v>69</v>
       </c>
       <c r="B70" s="9" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C70" s="10">
         <v>92</v>
@@ -3114,7 +3110,7 @@
         <v>70</v>
       </c>
       <c r="B71" s="9" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C71" s="10">
         <v>99</v>
@@ -3133,7 +3129,7 @@
         <v>71</v>
       </c>
       <c r="B72" s="9" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C72" s="10">
         <v>80</v>
@@ -3145,10 +3141,10 @@
         <v>301</v>
       </c>
       <c r="F72" s="12" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="G72" s="12" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="73" spans="1:7" ht="18.25" customHeight="1">
@@ -3156,7 +3152,7 @@
         <v>72</v>
       </c>
       <c r="B73" s="9" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C73" s="10">
         <v>98</v>
@@ -3175,7 +3171,7 @@
         <v>73</v>
       </c>
       <c r="B74" s="9" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C74" s="10">
         <v>-95</v>
@@ -3194,7 +3190,7 @@
         <v>74</v>
       </c>
       <c r="B75" s="9" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C75" s="10">
         <v>-37</v>
@@ -3213,7 +3209,7 @@
         <v>75</v>
       </c>
       <c r="B76" s="9" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C76" s="10">
         <v>97</v>
@@ -3225,7 +3221,7 @@
         <v>301</v>
       </c>
       <c r="F76" s="12" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="G76" s="11"/>
     </row>
@@ -3234,7 +3230,7 @@
         <v>76</v>
       </c>
       <c r="B77" s="9" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C77" s="10">
         <v>86</v>
@@ -3253,7 +3249,7 @@
         <v>77</v>
       </c>
       <c r="B78" s="9" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C78" s="10">
         <v>42</v>
@@ -3272,7 +3268,7 @@
         <v>78</v>
       </c>
       <c r="B79" s="9" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C79" s="10">
         <v>97</v>
@@ -3291,7 +3287,7 @@
         <v>79</v>
       </c>
       <c r="B80" s="9" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C80" s="10">
         <v>90</v>
@@ -3310,7 +3306,7 @@
         <v>80</v>
       </c>
       <c r="B81" s="9" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C81" s="10">
         <v>94</v>
@@ -3329,7 +3325,7 @@
         <v>81</v>
       </c>
       <c r="B82" s="9" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C82" s="10">
         <v>91</v>
@@ -3348,7 +3344,7 @@
         <v>82</v>
       </c>
       <c r="B83" s="9" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C83" s="10">
         <v>93</v>
@@ -3367,7 +3363,7 @@
         <v>83</v>
       </c>
       <c r="B84" s="9" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C84" s="10">
         <v>100</v>
@@ -3386,7 +3382,7 @@
         <v>84</v>
       </c>
       <c r="B85" s="9" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C85" s="10">
         <v>94</v>
@@ -3405,7 +3401,7 @@
         <v>85</v>
       </c>
       <c r="B86" s="9" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C86" s="10">
         <v>99</v>
@@ -3424,7 +3420,7 @@
         <v>86</v>
       </c>
       <c r="B87" s="9" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C87" s="10">
         <v>99</v>
